--- a/ems/src/main/webapp/excel/template/工资模板表.xlsx
+++ b/ems/src/main/webapp/excel/template/工资模板表.xlsx
@@ -11,18 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>工 人 工 资 表</t>
   </si>
   <si>
-    <t>用工单位（盖章）：</t>
+    <t>用工单位（盖章）：${companyName}</t>
   </si>
   <si>
     <t>劳务单位（盖章）：广州市励源建筑工程劳务有限公司</t>
   </si>
   <si>
-    <t>用工项目：</t>
+    <t>用工项目：${projectName}</t>
   </si>
   <si>
     <r>
@@ -62,6 +62,9 @@
     <t>工作天数</t>
   </si>
   <si>
+    <t>${month}</t>
+  </si>
+  <si>
     <t>单位：元/人民币</t>
   </si>
   <si>
@@ -110,34 +113,88 @@
     <t>其他扣除</t>
   </si>
   <si>
-    <t>大威</t>
-  </si>
-  <si>
-    <t>440105199911110011</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>0.00</t>
-  </si>
-  <si>
-    <t>7500.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>7425.00</t>
+    <t>&lt;jx:forEach items="${itemList}" var="item"&gt;</t>
+  </si>
+  <si>
+    <t>${item.groupName}</t>
+  </si>
+  <si>
+    <t>${item.numInGroup}</t>
+  </si>
+  <si>
+    <t>${item.employeeName}</t>
+  </si>
+  <si>
+    <t>${item.idCard}</t>
+  </si>
+  <si>
+    <t>${item.genderValue}</t>
+  </si>
+  <si>
+    <t>${item.attendanceDays
+}</t>
+  </si>
+  <si>
+    <t>${item.dailySalary}</t>
+  </si>
+  <si>
+    <t>${item.socialSecurityAllowance
+}</t>
+  </si>
+  <si>
+    <t>${item.houseFundAllowance
+}</t>
+  </si>
+  <si>
+    <t>${item.hotAllowance
+}</t>
+  </si>
+  <si>
+    <t>${item.otherIncome
+}</t>
+  </si>
+  <si>
+    <t>${item.payableSalary
+}</t>
+  </si>
+  <si>
+    <t>${item.personalSocialSecurity
+}</t>
+  </si>
+  <si>
+    <t>${item.personalHouseFund
+}</t>
+  </si>
+  <si>
+    <t>${item.payTaxes
+}</t>
+  </si>
+  <si>
+    <t>${item.otherDeduction
+}</t>
+  </si>
+  <si>
+    <t>${item.realSalary
+}</t>
+  </si>
+  <si>
+    <t>${item.companySocialSecurity
+}</t>
+  </si>
+  <si>
+    <t>${item.companyHouseFund
+}</t>
+  </si>
+  <si>
+    <t>&lt;/jx:forEach&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/m/d"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -506,7 +563,7 @@
     <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -530,29 +587,29 @@
     <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1646,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1755,8 +1812,8 @@
       <c r="F4" t="s" s="16">
         <v>10</v>
       </c>
-      <c r="G4" s="17">
-        <v>43374</v>
+      <c r="G4" t="s" s="17">
+        <v>11</v>
       </c>
       <c r="H4" s="18"/>
       <c r="I4" s="18"/>
@@ -1768,13 +1825,13 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
       <c r="Q4" t="s" s="16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R4" t="s" s="16">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="S4" t="s" s="19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1">
@@ -1785,23 +1842,23 @@
       <c r="E5" s="21"/>
       <c r="F5" s="21"/>
       <c r="G5" t="s" s="22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="21"/>
       <c r="K5" s="21"/>
       <c r="L5" t="s" s="22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" t="s" s="22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N5" s="21"/>
       <c r="O5" s="21"/>
       <c r="P5" s="23"/>
       <c r="Q5" t="s" s="22">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="R5" s="21"/>
       <c r="S5" s="24"/>
@@ -1814,115 +1871,123 @@
       <c r="E6" s="21"/>
       <c r="F6" s="21"/>
       <c r="G6" t="s" s="22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s" s="22">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s" s="22">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s" s="22">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" t="s" s="22">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N6" t="s" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s" s="22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P6" t="s" s="22">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Q6" s="21"/>
       <c r="R6" s="21"/>
       <c r="S6" s="24"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="25">
-        <v>111</v>
-      </c>
-      <c r="B7" s="26">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="22">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s" s="22">
+      <c r="A7" t="s" s="25">
         <v>28</v>
       </c>
-      <c r="E7" t="s" s="22">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="26"/>
+    </row>
+    <row r="8" ht="29" customHeight="1">
+      <c r="A8" t="s" s="25">
         <v>29</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" t="s" s="22">
+      <c r="B8" t="s" s="22">
         <v>30</v>
       </c>
-      <c r="H7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="I7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="K7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s" s="22">
+      <c r="C8" t="s" s="22">
         <v>31</v>
       </c>
-      <c r="M7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="O7" t="s" s="22">
+      <c r="D8" t="s" s="22">
         <v>32</v>
       </c>
-      <c r="P7" s="23"/>
-      <c r="Q7" t="s" s="22">
+      <c r="E8" t="s" s="22">
         <v>33</v>
       </c>
-      <c r="R7" t="s" s="22">
-        <v>30</v>
-      </c>
-      <c r="S7" t="s" s="27">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="29"/>
+      <c r="F8" t="s" s="27">
+        <v>34</v>
+      </c>
+      <c r="G8" t="s" s="22">
+        <v>35</v>
+      </c>
+      <c r="H8" t="s" s="27">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="27">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="27">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s" s="27">
+        <v>39</v>
+      </c>
+      <c r="L8" t="s" s="27">
+        <v>40</v>
+      </c>
+      <c r="M8" t="s" s="27">
+        <v>41</v>
+      </c>
+      <c r="N8" t="s" s="27">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s" s="27">
+        <v>43</v>
+      </c>
+      <c r="P8" t="s" s="27">
+        <v>44</v>
+      </c>
+      <c r="Q8" t="s" s="27">
+        <v>45</v>
+      </c>
+      <c r="R8" t="s" s="27">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s" s="29">
+        <v>47</v>
+      </c>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" t="s" s="25">
+        <v>48</v>
+      </c>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1940,49 +2005,28 @@
       <c r="P9" s="23"/>
       <c r="Q9" s="23"/>
       <c r="R9" s="23"/>
-      <c r="S9" s="29"/>
+      <c r="S9" s="26"/>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="28"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="29"/>
-    </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c r="A11" s="30"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="32"/>
+    <row r="10" ht="16.5" customHeight="1">
+      <c r="A10" s="30"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="18">
